--- a/Assistants/Schedule_Duties_Info.xlsx
+++ b/Assistants/Schedule_Duties_Info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Google_Drive\Academic\UWindsor\Course\COMP2560_System_Programming\F2022_Hossein_Fani\Assistants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CC23D00-10EC-40EA-B177-E7E20EC6019F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA0A1D0-B36E-4D3B-A98D-2C1070A1F202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C32AA88-CB60-44B0-A959-D17D6FFE0192}"/>
   </bookViews>
@@ -39,6 +39,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1928,9 +1929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E90F77D-24DA-4093-923B-91E32C079022}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2063,7 +2062,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="13">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>20</v>
@@ -2177,7 +2176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8B248F-B8F7-4349-88D3-A8D422907CB3}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2255,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22DDC83-E6A0-4CCE-B325-D7BC8822C4D5}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2622,9 +2621,10 @@
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="93a39aae-0c10-44f4-bcca-ab93ec7b7056"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="93a39aae-0c10-44f4-bcca-ab93ec7b7056"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -2646,15 +2646,9 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51F09107-E06C-4F36-AF05-7455D6286771}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="93a39aae-0c10-44f4-bcca-ab93ec7b7056"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>